--- a/Jupyter/simulationID/cim_0315_1240/agents_cim_0317_1615/bldg_itr_17.xlsx
+++ b/Jupyter/simulationID/cim_0315_1240/agents_cim_0317_1615/bldg_itr_17.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10203"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 14 GitHUB/BatYamNY/Jupyter/simulationID/cim_0315_1240/agents_cim_0317_1615/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ADB7C7-6C45-4946-8C7F-1D1EFF7A70B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="40700" yWindow="-2680" windowWidth="24100" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>index</t>
   </si>
@@ -106,17 +112,23 @@
     <t>225_8</t>
   </si>
   <si>
-    <t>﻿215_2</t>
-  </si>
-  <si>
     <t>תב״ע פינוי בינוי</t>
+  </si>
+  <si>
+    <t>215_2</t>
+  </si>
+  <si>
+    <t>תמ״א 38/1</t>
+  </si>
+  <si>
+    <t>תמ״א 38/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -225,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +277,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +329,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,14 +522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -537,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <v>0.375</v>
       </c>
       <c r="L2">
-        <v>0.6590909090909091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.65909090909090906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -575,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -584,7 +646,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -613,16 +675,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -651,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -689,16 +751,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5652173913043478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.56521739130434778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -727,16 +789,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.4666666666666667</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="L7">
-        <v>0.7777777777777778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -765,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -774,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -803,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L9">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -841,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
         <v>0.5</v>
@@ -850,7 +912,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -879,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <v>0.5</v>
@@ -888,7 +950,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -917,16 +979,16 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
         <v>0.3888888888888889</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -955,16 +1017,16 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L13">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -993,16 +1055,16 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L14">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1031,16 +1093,16 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="L15">
         <v>0.59375</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1069,16 +1131,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L16">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1107,16 +1169,16 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="L17">
         <v>0.375</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1145,16 +1207,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1183,16 +1245,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
         <v>0.1621621621621622</v>
       </c>
       <c r="L19">
-        <v>0.4038461538461539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.40384615384615391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1221,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1230,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1238,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>11</v>
@@ -1259,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.4583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="L21">
-        <v>0.8725490196078431</v>
+        <v>0.87254901960784315</v>
       </c>
     </row>
   </sheetData>
